--- a/story_xlsx_files_postpilotiiedits/33.xlsx
+++ b/story_xlsx_files_postpilotiiedits/33.xlsx
@@ -92,7 +92,7 @@
     <t>Ms. Bianchi handed to Ms. Morrison a packet with printed graphs of the increase in profits that several other stores in Italy had seen after starting to carry their products.</t>
   </si>
   <si>
-    <t xml:space="preserve">After a couple minutes of thinking, Ms. Morrison widened her eyes and said confidently, “You know what, I think you've convinced me that this could work. </t>
+    <t xml:space="preserve">After a couple minutes of thinking, Ms. Morrison widened her eyes and said confidently, “You know what, I think this could work. </t>
   </si>
   <si>
     <t>We've been trying to find a way to add a little European cachet to our stores.</t>
@@ -1772,7 +1772,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="128.05" customHeight="1">
+    <row r="24" ht="104.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
